--- a/db/load/cdisc/sdtm_model/sdtm_1-6.xlsx
+++ b/db/load/cdisc/sdtm_model/sdtm_1-6.xlsx
@@ -3,19 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFDD55E-792C-A945-A3DF-A2B48ADAB61A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55312A74-95FC-724E-AD3B-F229F369B260}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="29740" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="variables" sheetId="1" r:id="rId1"/>
+    <sheet name="SDTM 1.6" sheetId="1" r:id="rId1"/>
     <sheet name="ReadMe" sheetId="5" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">variables!$A$1:$L$204</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SDTM 1.6'!$A$1:$L$204</definedName>
     <definedName name="NoPrefixVar" localSheetId="1">'[1]Variables No Domain Prefix'!$A:$A</definedName>
     <definedName name="NoPrefixVar">#REF!</definedName>
   </definedNames>
@@ -3383,8 +3383,8 @@
   <dimension ref="A1:L204"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A578" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
